--- a/data/trans_orig/P13A1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66DC7D15-F0A6-453C-B5DE-D365E783167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AAEB8E6-B13B-4323-8DC9-E8B7C6960B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E66EA56-5A87-4793-9B05-14B52F62DCE8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26CE7D61-EB32-4BA7-8431-9559EF77C0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>Población que sufre dolor de cabeza desde hace mas de 3 meses en 2023 (Tasa respuesta: 3,1%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -113,19 +113,19 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -137,10 +137,10 @@
     <t>97,65%</t>
   </si>
   <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>98,19%</t>
@@ -149,7 +149,7 @@
     <t>92,98%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,78%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -158,16 +158,16 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>7,02%</t>
@@ -182,16 +182,19 @@
     <t>84,78%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>56,47%</t>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -200,16 +203,19 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>43,53%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -218,19 +224,19 @@
     <t>94,52%</t>
   </si>
   <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -239,19 +245,19 @@
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -666,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CA71ED-2FF0-4A1D-886C-4F41CF594D3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7BEC4D-EF73-4B5B-8345-B7CF322D3D8D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1136,7 +1142,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1157,7 +1163,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1166,13 +1172,13 @@
         <v>3940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1181,13 +1187,13 @@
         <v>3940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1258,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1270,13 +1276,13 @@
         <v>158410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -1285,13 +1291,13 @@
         <v>197265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -1321,13 +1327,13 @@
         <v>9180</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -1336,13 +1342,13 @@
         <v>9179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,7 +1404,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AAEB8E6-B13B-4323-8DC9-E8B7C6960B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D855206-5A8E-44D1-897D-D04F4FDA6C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26CE7D61-EB32-4BA7-8431-9559EF77C0C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9633496F-2B6B-4830-874A-2F6DE55A2673}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7BEC4D-EF73-4B5B-8345-B7CF322D3D8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20586E01-2505-4741-B0FC-B8FAB4166FEC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D855206-5A8E-44D1-897D-D04F4FDA6C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BCA440-78D5-4202-9269-C046F7DBEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9633496F-2B6B-4830-874A-2F6DE55A2673}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D3620B7-DD5C-45F0-8F06-11EAD3829659}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>Población que sufre dolor de cabeza desde hace mas de 3 meses en 2023 (Tasa respuesta: 3,1%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -113,19 +113,19 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -137,10 +137,10 @@
     <t>97,65%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>98,19%</t>
@@ -149,7 +149,7 @@
     <t>92,98%</t>
   </si>
   <si>
-    <t>99,78%</t>
+    <t>99,65%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -158,16 +158,16 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,22%</t>
+    <t>0,35%</t>
   </si>
   <si>
     <t>7,02%</t>
@@ -182,19 +182,16 @@
     <t>84,78%</t>
   </si>
   <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>56,47%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -203,19 +200,16 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
+    <t>43,53%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -224,19 +218,19 @@
     <t>94,52%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -245,19 +239,19 @@
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -672,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20586E01-2505-4741-B0FC-B8FAB4166FEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35803CB5-E0A8-40F4-950E-4E829663387F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1142,7 +1136,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1163,7 +1157,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1172,13 +1166,13 @@
         <v>3940</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1187,13 +1181,13 @@
         <v>3940</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1264,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1276,13 +1270,13 @@
         <v>158410</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -1291,13 +1285,13 @@
         <v>197265</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1318,7 +1312,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -1327,13 +1321,13 @@
         <v>9180</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -1342,13 +1336,13 @@
         <v>9179</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,7 +1398,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BCA440-78D5-4202-9269-C046F7DBEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59628AC3-F19B-4DC1-BC05-5F96CCA2C96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D3620B7-DD5C-45F0-8F06-11EAD3829659}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C85BB7BA-13F6-486B-B9B5-4FAEAD5F1BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>Población que sufre dolor de cabeza desde hace mas de 3 meses en 2023 (Tasa respuesta: 3,1%)</t>
   </si>
@@ -80,22 +80,22 @@
     <t>100%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,22 +110,22 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -134,43 +134,43 @@
     <t>92,94%</t>
   </si>
   <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -179,79 +179,85 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>15,22%</t>
+    <t>15,43%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -666,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35803CB5-E0A8-40F4-950E-4E829663387F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA4BD11-B17A-4D0B-8F70-8D31A4D9DFD4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -787,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>10121</v>
+        <v>9686</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -802,7 +808,7 @@
         <v>69</v>
       </c>
       <c r="I4" s="7">
-        <v>49309</v>
+        <v>43070</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -817,7 +823,7 @@
         <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>59430</v>
+        <v>52756</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -853,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>3145</v>
+        <v>2922</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -868,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>3145</v>
+        <v>2922</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -889,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>10121</v>
+        <v>9686</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -904,7 +910,7 @@
         <v>73</v>
       </c>
       <c r="I6" s="7">
-        <v>52454</v>
+        <v>45992</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -919,7 +925,7 @@
         <v>87</v>
       </c>
       <c r="N6" s="7">
-        <v>62575</v>
+        <v>55678</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -942,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>26179</v>
+        <v>25372</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -957,7 +963,7 @@
         <v>119</v>
       </c>
       <c r="I7" s="7">
-        <v>87155</v>
+        <v>79975</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>32</v>
@@ -972,7 +978,7 @@
         <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>113334</v>
+        <v>105347</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -1008,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2094</v>
+        <v>1795</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1023,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>2095</v>
+        <v>1795</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1044,7 +1050,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>26179</v>
+        <v>25372</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1059,7 +1065,7 @@
         <v>122</v>
       </c>
       <c r="I9" s="7">
-        <v>89249</v>
+        <v>81770</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1074,7 +1080,7 @@
         <v>148</v>
       </c>
       <c r="N9" s="7">
-        <v>115429</v>
+        <v>107142</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1097,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2554</v>
+        <v>2336</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1112,7 +1118,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>21946</v>
+        <v>19857</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>47</v>
@@ -1127,7 +1133,7 @@
         <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>24500</v>
+        <v>22193</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -1136,7 +1142,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1157,37 +1163,37 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>3940</v>
+        <v>3624</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>3940</v>
+        <v>3624</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1199,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2554</v>
+        <v>2336</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1214,7 +1220,7 @@
         <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>25886</v>
+        <v>23481</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1229,7 +1235,7 @@
         <v>35</v>
       </c>
       <c r="N12" s="7">
-        <v>28440</v>
+        <v>25817</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1252,13 +1258,13 @@
         <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>38855</v>
+        <v>37393</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1267,31 +1273,31 @@
         <v>218</v>
       </c>
       <c r="I13" s="7">
-        <v>158410</v>
+        <v>142904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
       </c>
       <c r="N13" s="7">
-        <v>197265</v>
+        <v>180297</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,37 +1318,37 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>9180</v>
+        <v>8340</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>9179</v>
+        <v>8340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,7 +1360,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>38855</v>
+        <v>37393</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1369,7 +1375,7 @@
         <v>228</v>
       </c>
       <c r="I15" s="7">
-        <v>167590</v>
+        <v>151244</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1384,7 +1390,7 @@
         <v>270</v>
       </c>
       <c r="N15" s="7">
-        <v>206444</v>
+        <v>188637</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1398,7 +1404,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
